--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_磐石组.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3_磐石组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="2772" windowWidth="27636" windowHeight="10128"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.1.2 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.1.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -959,7 +959,7 @@
   <dimension ref="A1:T199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
